--- a/ENUNCIADO.xlsx
+++ b/ENUNCIADO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
@@ -471,8 +471,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,12 +496,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -516,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,6 +546,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -595,7 +628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,10 +660,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -662,7 +694,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -838,15 +869,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A2:F111"/>
+  <dimension ref="A2:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
@@ -854,523 +885,527 @@
     <col min="4" max="4" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
+      <c r="A10" s="9"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
+      <c r="A12" s="9"/>
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
+      <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
+      <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+    <row r="23" spans="1:4">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+    <row r="29" spans="1:4">
+      <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>36</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="31" spans="1:4">
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+    <row r="36" spans="2:4">
+      <c r="B36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D36" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D38" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+    <row r="39" spans="2:4">
+      <c r="B39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+    <row r="40" spans="2:4">
+      <c r="B40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+    <row r="43" spans="2:4">
+      <c r="B43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
         <v>40</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
         <v>38</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
         <v>19</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
         <v>39</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+    <row r="50" spans="2:6">
+      <c r="B50" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D50" t="s">
         <v>58</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="51" spans="2:6">
+      <c r="B51" t="s">
         <v>34</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C51" t="s">
         <v>40</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D51" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="52" spans="2:6">
+      <c r="B52" t="s">
         <v>42</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>38</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D52" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
+    <row r="53" spans="2:6">
+      <c r="B53" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C53" t="s">
         <v>49</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D53" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="54" spans="2:6">
+      <c r="B54" t="s">
         <v>20</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" t="s">
         <v>20</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
+    <row r="56" spans="2:6">
+      <c r="B56" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="57" spans="2:6">
+      <c r="B57" t="s">
         <v>34</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D57" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="58" spans="2:6">
+      <c r="B58" t="s">
         <v>47</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D58" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
+    <row r="59" spans="2:6">
+      <c r="B59" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
+    <row r="62" spans="2:6">
+      <c r="B62" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D62" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="63" spans="2:6">
+      <c r="B63" t="s">
         <v>34</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D63" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="64" spans="2:6">
+      <c r="B64" t="s">
         <v>52</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="65" spans="2:4">
+      <c r="B65" t="s">
         <v>98</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D65" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
+    <row r="70" spans="2:4">
+      <c r="B70" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="72" spans="2:4">
+      <c r="B72" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="73" spans="2:4">
+      <c r="B73" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
+    <row r="76" spans="2:4">
+      <c r="B76" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="77" spans="2:4">
+      <c r="B77" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
+    <row r="79" spans="2:4">
+      <c r="B79" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="80" spans="2:4">
+      <c r="B80" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
+    <row r="82" spans="4:4">
+      <c r="D82" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
+    <row r="83" spans="4:4">
+      <c r="D83" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
+    <row r="84" spans="4:4">
+      <c r="D84" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
+    <row r="85" spans="4:4">
+      <c r="D85" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
+    <row r="86" spans="4:4">
+      <c r="D86" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
+    <row r="89" spans="4:4">
+      <c r="D89" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
+    <row r="90" spans="4:4">
+      <c r="D90" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
+    <row r="91" spans="4:4">
+      <c r="D91" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
+    <row r="92" spans="4:4">
+      <c r="D92" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
+    <row r="93" spans="4:4">
+      <c r="D93" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
+    <row r="98" spans="4:4">
+      <c r="D98" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
+    <row r="99" spans="4:4">
+      <c r="D99" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
+    <row r="100" spans="4:4">
+      <c r="D100" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
+    <row r="104" spans="4:4">
+      <c r="D104" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
+    <row r="105" spans="4:4">
+      <c r="D105" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
+    <row r="106" spans="4:4">
+      <c r="D106" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
+    <row r="110" spans="4:4">
+      <c r="D110" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D108" t="s">
+    <row r="111" spans="4:4">
+      <c r="D111" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
+    <row r="112" spans="4:4">
+      <c r="D112" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
+    <row r="113" spans="4:4">
+      <c r="D113" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
+    <row r="114" spans="4:4">
+      <c r="D114" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1381,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A2:D19"/>
   <sheetViews>
@@ -1389,9 +1424,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1399,74 +1434,74 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="B6" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="C12" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="C13" s="3"/>
       <c r="D13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="C15" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="C16" s="3"/>
       <c r="D16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4">
       <c r="C18" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4">
       <c r="D19" t="s">
         <v>106</v>
       </c>
@@ -1478,7 +1513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A2:A11"/>
   <sheetViews>
@@ -1486,22 +1521,22 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>113</v>
       </c>

--- a/ENUNCIADO.xlsx
+++ b/ENUNCIADO.xlsx
@@ -11,7 +11,7 @@
     <sheet name="CONSULTAS" sheetId="2" r:id="rId2"/>
     <sheet name="Trabajo realizado" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -873,8 +873,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
